--- a/data/trans_orig/P29A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>286865</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>262013</v>
+        <v>264115</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>311051</v>
+        <v>312127</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4959587534012261</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4529923281858546</v>
+        <v>0.4566266699447632</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5377742496884148</v>
+        <v>0.5396353879770679</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>159</v>
@@ -765,19 +765,19 @@
         <v>166432</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>142705</v>
+        <v>142238</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>189698</v>
+        <v>189917</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1819329716799471</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1559957002372418</v>
+        <v>0.1554848427145299</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2073656009819684</v>
+        <v>0.2076052577762671</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>440</v>
@@ -786,19 +786,19 @@
         <v>453297</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>417016</v>
+        <v>417821</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>486866</v>
+        <v>490273</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3035732490351492</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2792760242143916</v>
+        <v>0.2798151038583776</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3260544230142332</v>
+        <v>0.3283359713791714</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>291539</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>267353</v>
+        <v>266277</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>316391</v>
+        <v>314289</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5040412465987738</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4622257503115853</v>
+        <v>0.4603646120229322</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5470076718141454</v>
+        <v>0.5433733300552368</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>719</v>
@@ -836,19 +836,19 @@
         <v>748368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>725102</v>
+        <v>724883</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>772095</v>
+        <v>772562</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8180670283200528</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7926343990180319</v>
+        <v>0.792394742223733</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8440042997627583</v>
+        <v>0.8445151572854702</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1006</v>
@@ -857,19 +857,19 @@
         <v>1039908</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1006339</v>
+        <v>1002932</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1076189</v>
+        <v>1075384</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6964267509648507</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6739455769857668</v>
+        <v>0.6716640286208286</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7207239757856084</v>
+        <v>0.7201848961416226</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>598118</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>563080</v>
+        <v>563057</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>631438</v>
+        <v>629707</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5598445518323031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5270490977634825</v>
+        <v>0.5270277256555765</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.591032444954237</v>
+        <v>0.5894126811044704</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>222</v>
@@ -982,19 +982,19 @@
         <v>229034</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>201374</v>
+        <v>202896</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>254618</v>
+        <v>256517</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2172120746677731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1909793006373426</v>
+        <v>0.1924228783485382</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2414750743790348</v>
+        <v>0.2432762070164956</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>814</v>
@@ -1003,19 +1003,19 @@
         <v>827152</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>779593</v>
+        <v>781376</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>870009</v>
+        <v>870290</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3896530049167788</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3672487690046692</v>
+        <v>0.3680886451713618</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4098419900025115</v>
+        <v>0.4099740557236853</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>470246</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>436926</v>
+        <v>438657</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>505284</v>
+        <v>505307</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4401554481676969</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4089675550457629</v>
+        <v>0.4105873188955297</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4729509022365176</v>
+        <v>0.4729722743444236</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>803</v>
@@ -1053,19 +1053,19 @@
         <v>825394</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>799810</v>
+        <v>797911</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>853054</v>
+        <v>851532</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.782787925332227</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7585249256209652</v>
+        <v>0.7567237929835045</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8090206993626574</v>
+        <v>0.8075771216514618</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1256</v>
@@ -1074,19 +1074,19 @@
         <v>1295640</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1252783</v>
+        <v>1252502</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1343199</v>
+        <v>1341416</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6103469950832212</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5901580099974885</v>
+        <v>0.5900259442763147</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6327512309953307</v>
+        <v>0.6319113548286381</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>616532</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>586000</v>
+        <v>582890</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>651757</v>
+        <v>646516</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5620084406383455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.534176916672218</v>
+        <v>0.5313420447646652</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.594118160238096</v>
+        <v>0.5893413692309744</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>288</v>
@@ -1199,19 +1199,19 @@
         <v>291659</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>265513</v>
+        <v>266245</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>318899</v>
+        <v>323165</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2959010898597861</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2693746338878849</v>
+        <v>0.2701171486366549</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3235375048293172</v>
+        <v>0.3278649845363714</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>893</v>
@@ -1220,19 +1220,19 @@
         <v>908190</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>863206</v>
+        <v>861038</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>951169</v>
+        <v>953023</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.436068529546725</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4144693591970839</v>
+        <v>0.4134284769722091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4567046464277671</v>
+        <v>0.4575951026887211</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>480483</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>445258</v>
+        <v>450499</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>511015</v>
+        <v>514125</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4379915593616544</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4058818397619042</v>
+        <v>0.4106586307690259</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4658230833277822</v>
+        <v>0.4686579552353353</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>686</v>
@@ -1270,19 +1270,19 @@
         <v>694005</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>666765</v>
+        <v>662499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>720151</v>
+        <v>719419</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.704098910140214</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6764624951706828</v>
+        <v>0.6721350154636284</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7306253661121151</v>
+        <v>0.7298828513633451</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1162</v>
@@ -1291,19 +1291,19 @@
         <v>1174488</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1131509</v>
+        <v>1129655</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1219472</v>
+        <v>1221640</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.563931470453275</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5432953535722329</v>
+        <v>0.5424048973112789</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5855306408029163</v>
+        <v>0.5865715230277908</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>260807</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>238977</v>
+        <v>240866</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>281987</v>
+        <v>280875</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5872410560195201</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5380893471050059</v>
+        <v>0.5423420312520097</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6349323418707781</v>
+        <v>0.632427490120825</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>124</v>
@@ -1416,19 +1416,19 @@
         <v>124021</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106919</v>
+        <v>105945</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>141765</v>
+        <v>140333</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3635300798879481</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3133990060871732</v>
+        <v>0.3105453209530113</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4155398599826665</v>
+        <v>0.411341792855991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>376</v>
@@ -1437,19 +1437,19 @@
         <v>384828</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>356573</v>
+        <v>353866</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>415264</v>
+        <v>414019</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4900517998177973</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4540706794010528</v>
+        <v>0.4506237467716364</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5288099436703118</v>
+        <v>0.5272253043305958</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>183315</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>162135</v>
+        <v>163247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>205145</v>
+        <v>203256</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4127589439804799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3650676581292223</v>
+        <v>0.3675725098791751</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4619106528949941</v>
+        <v>0.4576579687479904</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>215</v>
@@ -1487,19 +1487,19 @@
         <v>217137</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>199393</v>
+        <v>200825</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>234239</v>
+        <v>235213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6364699201120519</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5844601400173336</v>
+        <v>0.588658207144009</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6866009939128268</v>
+        <v>0.6894546790469888</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>396</v>
@@ -1508,19 +1508,19 @@
         <v>400452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>370016</v>
+        <v>371261</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>428707</v>
+        <v>431414</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5099482001822027</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.471190056329688</v>
+        <v>0.4727746956694042</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5459293205989469</v>
+        <v>0.5493762532283637</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>1762321</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1708513</v>
+        <v>1705428</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1819799</v>
+        <v>1815870</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5528146702195079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5359358947622075</v>
+        <v>0.5349682023922572</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.570844874945825</v>
+        <v>0.5696122751550058</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>793</v>
@@ -1633,19 +1633,19 @@
         <v>811147</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>761682</v>
+        <v>762870</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>860221</v>
+        <v>860329</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2460966868226716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2310894438157714</v>
+        <v>0.2314498963674992</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2609853314078389</v>
+        <v>0.2610180490523596</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2523</v>
@@ -1654,19 +1654,19 @@
         <v>2573468</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2492503</v>
+        <v>2495484</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2656737</v>
+        <v>2654392</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3968978295312047</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3844108953441449</v>
+        <v>0.3848707157485213</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4097402033305644</v>
+        <v>0.4093784736385889</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1425584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1368106</v>
+        <v>1372035</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1479392</v>
+        <v>1482477</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4471853297804921</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.429155125054175</v>
+        <v>0.4303877248449941</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4640641052377925</v>
+        <v>0.4650317976077425</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2423</v>
@@ -1704,19 +1704,19 @@
         <v>2484903</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2435829</v>
+        <v>2435721</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2534368</v>
+        <v>2533180</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7539033131773284</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7390146685921611</v>
+        <v>0.7389819509476404</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7689105561842287</v>
+        <v>0.7685501036325008</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3820</v>
@@ -1725,19 +1725,19 @@
         <v>3910487</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3827218</v>
+        <v>3829563</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3991452</v>
+        <v>3988471</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6031021704687952</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5902597966694355</v>
+        <v>0.5906215263614112</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.615589104655855</v>
+        <v>0.6151292842514787</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>540799</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>510737</v>
+        <v>507053</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>573939</v>
+        <v>575068</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5401349403958987</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5101104486722767</v>
+        <v>0.5064304486988277</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5732342568002171</v>
+        <v>0.5743621514040657</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>214</v>
@@ -2090,19 +2090,19 @@
         <v>236589</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>207750</v>
+        <v>211267</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>266615</v>
+        <v>265908</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2153085733004987</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.189063222377897</v>
+        <v>0.1922641539484827</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2426329317810114</v>
+        <v>0.2419898898860104</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>722</v>
@@ -2111,19 +2111,19 @@
         <v>777388</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>736401</v>
+        <v>734815</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>827512</v>
+        <v>822888</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3701729054805774</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3506558552332324</v>
+        <v>0.3499005434499655</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3940407636572718</v>
+        <v>0.3918386686692093</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>460430</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>427290</v>
+        <v>426161</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>490492</v>
+        <v>494176</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4598650596041013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4267657431997829</v>
+        <v>0.4256378485959343</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4898895513277238</v>
+        <v>0.4935695513011722</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>797</v>
@@ -2161,19 +2161,19 @@
         <v>862250</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>832224</v>
+        <v>832931</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>891089</v>
+        <v>887572</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7846914266995013</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7573670682189886</v>
+        <v>0.7580101101139896</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.810936777622103</v>
+        <v>0.8077358460515173</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1226</v>
@@ -2182,19 +2182,19 @@
         <v>1322680</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1272556</v>
+        <v>1277180</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1363667</v>
+        <v>1365253</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6298270945194226</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6059592363427281</v>
+        <v>0.6081613313307908</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6493441447667674</v>
+        <v>0.6500994565500346</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>528067</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>498215</v>
+        <v>496581</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>558457</v>
+        <v>557208</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5662237124851448</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5342144408779678</v>
+        <v>0.5324626133204122</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.598809358032339</v>
+        <v>0.5974705718022055</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>258</v>
@@ -2307,19 +2307,19 @@
         <v>279229</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>251993</v>
+        <v>251533</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>310111</v>
+        <v>309164</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2585465727650508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2333284196241698</v>
+        <v>0.2329024153918373</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2871416776726928</v>
+        <v>0.2862648102486553</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>760</v>
@@ -2328,19 +2328,19 @@
         <v>807296</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>758609</v>
+        <v>763256</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>847838</v>
+        <v>851787</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4011196086913484</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3769284432922385</v>
+        <v>0.3792372438184529</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.421263364215108</v>
+        <v>0.4232256589198631</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>404545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>374155</v>
+        <v>375404</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>434397</v>
+        <v>436031</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4337762875148552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.401190641967661</v>
+        <v>0.4025294281977945</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4657855591220323</v>
+        <v>0.4675373866795877</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>748</v>
@@ -2378,19 +2378,19 @@
         <v>800765</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>769883</v>
+        <v>770830</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>828001</v>
+        <v>828461</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7414534272349491</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7128583223273071</v>
+        <v>0.7137351897513443</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7666715803758301</v>
+        <v>0.7670975846081624</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1130</v>
@@ -2399,19 +2399,19 @@
         <v>1205311</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1164769</v>
+        <v>1160820</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1253998</v>
+        <v>1249351</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5988803913086517</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.578736635784892</v>
+        <v>0.5767743410801369</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6230715567077616</v>
+        <v>0.6207627561815471</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>491260</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>456990</v>
+        <v>463954</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>518828</v>
+        <v>522011</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5843328766188296</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5435703496389366</v>
+        <v>0.5518532461988832</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6171244577739766</v>
+        <v>0.6209100648818274</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>220</v>
@@ -2524,19 +2524,19 @@
         <v>233075</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>207014</v>
+        <v>208258</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>262312</v>
+        <v>258916</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2730132315767985</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2424859426598997</v>
+        <v>0.2439440984108164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3072603722843</v>
+        <v>0.3032816313376427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>685</v>
@@ -2545,19 +2545,19 @@
         <v>724335</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>684522</v>
+        <v>682259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>766432</v>
+        <v>766809</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4274793341338551</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4039828451688997</v>
+        <v>0.4026472147184664</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4523236499676225</v>
+        <v>0.45254582482571</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>349459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>321891</v>
+        <v>318708</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>383729</v>
+        <v>376765</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4156671233811703</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3828755422260233</v>
+        <v>0.3790899351181726</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4564296503610634</v>
+        <v>0.4481467538011168</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>581</v>
@@ -2595,19 +2595,19 @@
         <v>620639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>591402</v>
+        <v>594798</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>646700</v>
+        <v>645456</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7269867684232015</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6927396277157</v>
+        <v>0.6967183686623571</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7575140573401002</v>
+        <v>0.7560559015891836</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>906</v>
@@ -2616,19 +2616,19 @@
         <v>970098</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>928001</v>
+        <v>927624</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1009911</v>
+        <v>1012174</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5725206658661448</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5476763500323776</v>
+        <v>0.54745417517429</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5960171548311004</v>
+        <v>0.5973527852815336</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>270479</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>246036</v>
+        <v>246288</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>292132</v>
+        <v>292976</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5607157908772108</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5100446934683113</v>
+        <v>0.5105663433641774</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6056036666235871</v>
+        <v>0.6073524363484413</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -2741,19 +2741,19 @@
         <v>142586</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122143</v>
+        <v>121712</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>162954</v>
+        <v>164052</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3255325669248784</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2788600788284055</v>
+        <v>0.277876228522991</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3720346639291593</v>
+        <v>0.3745422387851128</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>376</v>
@@ -2762,19 +2762,19 @@
         <v>413065</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>379588</v>
+        <v>381624</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>444554</v>
+        <v>446292</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4487936060681399</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4124207983692369</v>
+        <v>0.4146335978474321</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4830067438393871</v>
+        <v>0.4848952873116862</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>211903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>190250</v>
+        <v>189406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>236346</v>
+        <v>236094</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4392842091227893</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3943963333764129</v>
+        <v>0.3926475636515587</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4899553065316887</v>
+        <v>0.4894336566358226</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>274</v>
@@ -2812,19 +2812,19 @@
         <v>295421</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>275053</v>
+        <v>273955</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>315864</v>
+        <v>316295</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6744674330751216</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6279653360708404</v>
+        <v>0.6254577612148873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7211399211715944</v>
+        <v>0.722123771477009</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>466</v>
@@ -2833,19 +2833,19 @@
         <v>507324</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>475835</v>
+        <v>474097</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>540801</v>
+        <v>538765</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5512063939318601</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5169932561606129</v>
+        <v>0.5151047126883137</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5875792016307632</v>
+        <v>0.5853664021525679</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1830605</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1770025</v>
+        <v>1775661</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1889626</v>
+        <v>1887029</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5620624370152379</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5434623634107999</v>
+        <v>0.5451927439330448</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5801840623204144</v>
+        <v>0.5793865889319012</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>819</v>
@@ -2958,19 +2958,19 @@
         <v>891479</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>843347</v>
+        <v>839348</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>942090</v>
+        <v>948229</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2568693561621598</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2430006586367759</v>
+        <v>0.2418484377668444</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2714523493660494</v>
+        <v>0.2732211674855242</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2543</v>
@@ -2979,19 +2979,19 @@
         <v>2722084</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2636423</v>
+        <v>2629602</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2808878</v>
+        <v>2797000</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4046206459600413</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3918877179856062</v>
+        <v>0.3908738403552605</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4175220540932042</v>
+        <v>0.4157565316256714</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1426337</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1367316</v>
+        <v>1369913</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1486917</v>
+        <v>1481281</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4379375629847621</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4198159376795856</v>
+        <v>0.4206134110680987</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4565376365892001</v>
+        <v>0.4548072560669552</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2400</v>
@@ -3029,19 +3029,19 @@
         <v>2579075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2528464</v>
+        <v>2522325</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2627207</v>
+        <v>2631206</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7431306438378402</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7285476506339508</v>
+        <v>0.7267788325144757</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7569993413632241</v>
+        <v>0.7581515622331552</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3728</v>
@@ -3050,19 +3050,19 @@
         <v>4005412</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3918618</v>
+        <v>3930496</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4091073</v>
+        <v>4097894</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5953793540399587</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5824779459067958</v>
+        <v>0.5842434683743286</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6081122820143938</v>
+        <v>0.6091261596447395</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>563314</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>529102</v>
+        <v>530391</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>598301</v>
+        <v>600198</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5086418470567674</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4777507586527865</v>
+        <v>0.4789141916297375</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5402334994408217</v>
+        <v>0.541946299406694</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>298</v>
@@ -3415,19 +3415,19 @@
         <v>309221</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>278707</v>
+        <v>280025</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>340155</v>
+        <v>342464</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2485529932501199</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2240256553114749</v>
+        <v>0.2250855739105982</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.273417818236332</v>
+        <v>0.2752739665103741</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>826</v>
@@ -3436,19 +3436,19 @@
         <v>872534</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>824239</v>
+        <v>818814</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>920393</v>
+        <v>920178</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3710433615641175</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3505059697162095</v>
+        <v>0.3481989138313575</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3913952914229376</v>
+        <v>0.3913038641683944</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>544172</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>509185</v>
+        <v>507288</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>578384</v>
+        <v>577095</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4913581529432326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4597665005591783</v>
+        <v>0.4580537005933059</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5222492413472135</v>
+        <v>0.5210858083702624</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>876</v>
@@ -3486,19 +3486,19 @@
         <v>934863</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>903929</v>
+        <v>901620</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>965377</v>
+        <v>964059</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7514470067498801</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7265821817636678</v>
+        <v>0.7247260334896256</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.775974344688525</v>
+        <v>0.7749144260894016</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1394</v>
@@ -3507,19 +3507,19 @@
         <v>1479036</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1431177</v>
+        <v>1431392</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1527331</v>
+        <v>1532756</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6289566384358826</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6086047085770625</v>
+        <v>0.6086961358316054</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6494940302837905</v>
+        <v>0.6518010861686424</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>504835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>476880</v>
+        <v>473143</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>535821</v>
+        <v>533964</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5797565948116185</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.547652353730417</v>
+        <v>0.543361279968996</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6153413686041102</v>
+        <v>0.6132085824415875</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>295</v>
@@ -3632,19 +3632,19 @@
         <v>303249</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>272942</v>
+        <v>274953</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>330203</v>
+        <v>331312</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3056023048719227</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2750603772069893</v>
+        <v>0.2770869267552829</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3327654415356872</v>
+        <v>0.3338831788584769</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>784</v>
@@ -3653,19 +3653,19 @@
         <v>808084</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>766940</v>
+        <v>766089</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>849388</v>
+        <v>849456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4337379252331652</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4116537054830116</v>
+        <v>0.4111969351732551</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4559076419662718</v>
+        <v>0.4559440321094002</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>365936</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>334950</v>
+        <v>336807</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>393891</v>
+        <v>397628</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4202434051883815</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3846586313958898</v>
+        <v>0.3867914175584126</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4523476462695829</v>
+        <v>0.456638720031004</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>642</v>
@@ -3703,19 +3703,19 @@
         <v>689050</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>662096</v>
+        <v>660987</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>719357</v>
+        <v>717346</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6943976951280773</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6672345584643128</v>
+        <v>0.6661168211415232</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7249396227930106</v>
+        <v>0.7229130732447171</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>999</v>
@@ -3724,19 +3724,19 @@
         <v>1054986</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1013682</v>
+        <v>1013614</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1096130</v>
+        <v>1096981</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5662620747668348</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5440923580337281</v>
+        <v>0.5440559678905998</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5883462945169884</v>
+        <v>0.5888030648267448</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>497382</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>470570</v>
+        <v>470259</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>527185</v>
+        <v>525097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6254290105178761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5917149052234594</v>
+        <v>0.5913231583778885</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6629047083103182</v>
+        <v>0.6602796598626881</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>263</v>
@@ -3849,19 +3849,19 @@
         <v>277082</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>249278</v>
+        <v>251885</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>303659</v>
+        <v>306497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3662528376098496</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3295014011520044</v>
+        <v>0.3329469143414122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4013828010287507</v>
+        <v>0.4051336316579107</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>730</v>
@@ -3870,19 +3870,19 @@
         <v>774464</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>733880</v>
+        <v>730379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>813469</v>
+        <v>811350</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4990754669395792</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4729226797912767</v>
+        <v>0.4706664934125835</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5242106769623683</v>
+        <v>0.5228451289995705</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>297883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>268080</v>
+        <v>270168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>324695</v>
+        <v>325006</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3745709894821239</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3370952916896819</v>
+        <v>0.3397203401373119</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4082850947765408</v>
+        <v>0.4086768416221115</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>452</v>
@@ -3920,19 +3920,19 @@
         <v>479450</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>452873</v>
+        <v>450035</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>507254</v>
+        <v>504647</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6337471623901504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5986171989712489</v>
+        <v>0.5948663683420892</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6704985988479955</v>
+        <v>0.6670530856585878</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>745</v>
@@ -3941,19 +3941,19 @@
         <v>777333</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>738328</v>
+        <v>740447</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>817917</v>
+        <v>821418</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5009245330604208</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4757893230376317</v>
+        <v>0.4771548710004295</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5270773202087232</v>
+        <v>0.5293335065874165</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>300583</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>277519</v>
+        <v>279104</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>322840</v>
+        <v>322909</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6132010071102165</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.566149876007176</v>
+        <v>0.5693844240984328</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6586072331191766</v>
+        <v>0.6587487705264611</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>165</v>
@@ -4066,19 +4066,19 @@
         <v>175655</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>151628</v>
+        <v>154228</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>197470</v>
+        <v>197051</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3671222864731239</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3169057636626082</v>
+        <v>0.3223391268866643</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4127167243914964</v>
+        <v>0.4118397835857613</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>446</v>
@@ -4087,19 +4087,19 @@
         <v>476237</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>445926</v>
+        <v>441900</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>510585</v>
+        <v>503984</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4916506668846946</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4603585793646924</v>
+        <v>0.4562017203820262</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5271094013087616</v>
+        <v>0.520294965640193</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>189603</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>167346</v>
+        <v>167277</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>212667</v>
+        <v>211082</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3867989928897834</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3413927668808231</v>
+        <v>0.341251229473539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4338501239928239</v>
+        <v>0.4306155759015672</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>281</v>
@@ -4137,19 +4137,19 @@
         <v>302809</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>280994</v>
+        <v>281413</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>326836</v>
+        <v>324236</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6328777135268761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5872832756085037</v>
+        <v>0.5881602164142387</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6830942363373922</v>
+        <v>0.6776608731133357</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>455</v>
@@ -4158,19 +4158,19 @@
         <v>492413</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>458065</v>
+        <v>464666</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>522724</v>
+        <v>526750</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5083493331153054</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4728905986912384</v>
+        <v>0.4797050343598071</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5396414206353076</v>
+        <v>0.5437982796179738</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1866113</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1804580</v>
+        <v>1806172</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1922470</v>
+        <v>1917431</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5717770530582204</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5529232269816473</v>
+        <v>0.5534108818783131</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5890446321626965</v>
+        <v>0.5875007474900908</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1021</v>
@@ -4283,19 +4283,19 @@
         <v>1065206</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1013515</v>
+        <v>1009880</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1125745</v>
+        <v>1117699</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3068539648259698</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2919632729356729</v>
+        <v>0.2909160796217349</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3242932804934505</v>
+        <v>0.3219755976703405</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2786</v>
@@ -4304,19 +4304,19 @@
         <v>2931319</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2858528</v>
+        <v>2850508</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3017477</v>
+        <v>3010381</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4352311681054281</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4244234455578933</v>
+        <v>0.4232326779546476</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4480234562352368</v>
+        <v>0.4469699303369515</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1397595</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1341238</v>
+        <v>1346277</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1459128</v>
+        <v>1457536</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4282229469417796</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4109553678373034</v>
+        <v>0.4124992525099089</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4470767730183524</v>
+        <v>0.4465891181216867</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2251</v>
@@ -4354,19 +4354,19 @@
         <v>2406172</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2345633</v>
+        <v>2353679</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2457863</v>
+        <v>2461498</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6931460351740302</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6757067195065497</v>
+        <v>0.6780244023296593</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7080367270643272</v>
+        <v>0.7090839203782647</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3593</v>
@@ -4375,19 +4375,19 @@
         <v>3803767</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3717609</v>
+        <v>3724705</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3876558</v>
+        <v>3884578</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5647688318945719</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5519765437647632</v>
+        <v>0.5530300696630484</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5755765544421066</v>
+        <v>0.5767673220453524</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>214754</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>189815</v>
+        <v>189260</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>239383</v>
+        <v>238241</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4327005997177543</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3824527122437336</v>
+        <v>0.3813338553806904</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4823263450065676</v>
+        <v>0.4800255254054823</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -4740,19 +4740,19 @@
         <v>117002</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>100199</v>
+        <v>101436</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>134876</v>
+        <v>136406</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.188133235937149</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1611155738271564</v>
+        <v>0.1631033630456916</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.216873158490621</v>
+        <v>0.2193336706542362</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>353</v>
@@ -4761,19 +4761,19 @@
         <v>331756</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>299808</v>
+        <v>301825</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>364140</v>
+        <v>363262</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2966818138424759</v>
+        <v>0.2966818138424758</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2681115869081404</v>
+        <v>0.2699152401819379</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3256428420475758</v>
+        <v>0.3248577696657385</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>281556</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256927</v>
+        <v>258069</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>306495</v>
+        <v>307050</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5672994002822457</v>
+        <v>0.5672994002822458</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5176736549934322</v>
+        <v>0.5199744745945174</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6175472877562665</v>
+        <v>0.6186661446193096</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>707</v>
@@ -4811,19 +4811,19 @@
         <v>504908</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>487034</v>
+        <v>485504</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>521711</v>
+        <v>520474</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8118667640628509</v>
+        <v>0.811866764062851</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7831268415093791</v>
+        <v>0.7806663293457635</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8388844261728435</v>
+        <v>0.8368966369543084</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>959</v>
@@ -4832,19 +4832,19 @@
         <v>786464</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>754080</v>
+        <v>754958</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>818412</v>
+        <v>816395</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7033181861575243</v>
+        <v>0.7033181861575242</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.674357157952424</v>
+        <v>0.6751422303342617</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7318884130918594</v>
+        <v>0.730084759818062</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>458064</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>426059</v>
+        <v>424661</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>494711</v>
+        <v>491851</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4774570039047935</v>
+        <v>0.4774570039047936</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4440971218386245</v>
+        <v>0.4426394256743008</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.515655153866681</v>
+        <v>0.5126741645884799</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>316</v>
@@ -4957,19 +4957,19 @@
         <v>244994</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>220457</v>
+        <v>219790</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>271440</v>
+        <v>271631</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2201124053963508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1980673151098823</v>
+        <v>0.1974684474889697</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2438726718893418</v>
+        <v>0.2440443526509722</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>745</v>
@@ -4978,19 +4978,19 @@
         <v>703058</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>660676</v>
+        <v>662297</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>749853</v>
+        <v>747409</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3392444955432862</v>
+        <v>0.3392444955432863</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3187939674570352</v>
+        <v>0.319576272448456</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3618240637648936</v>
+        <v>0.3606449437122676</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>501319</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>464672</v>
+        <v>467532</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>533324</v>
+        <v>534722</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5225429960952065</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4843448461333192</v>
+        <v>0.4873258354115201</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5559028781613754</v>
+        <v>0.5573605743256993</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1287</v>
@@ -5028,19 +5028,19 @@
         <v>868046</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>841600</v>
+        <v>841409</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>892583</v>
+        <v>893250</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7798875946036493</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7561273281106577</v>
+        <v>0.7559556473490276</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8019326848901174</v>
+        <v>0.8025315525110303</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1767</v>
@@ -5049,19 +5049,19 @@
         <v>1369365</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1322570</v>
+        <v>1325014</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1411747</v>
+        <v>1410126</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6607555044567137</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6381759362351065</v>
+        <v>0.6393550562877325</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6812060325429649</v>
+        <v>0.6804237275515441</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>505778</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>469186</v>
+        <v>474456</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>540275</v>
+        <v>543380</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4837416757121071</v>
+        <v>0.483741675712107</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4487440431503855</v>
+        <v>0.4537843149567022</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5167357532799647</v>
+        <v>0.5197050817102192</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>369</v>
@@ -5174,19 +5174,19 @@
         <v>267141</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>243917</v>
+        <v>243795</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>290906</v>
+        <v>294257</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2549923231657699</v>
+        <v>0.25499232316577</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2328245999476269</v>
+        <v>0.2327087522069232</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.277677142746583</v>
+        <v>0.2808756910686815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>866</v>
@@ -5195,19 +5195,19 @@
         <v>772918</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>730748</v>
+        <v>729811</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>817358</v>
+        <v>817505</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3692529050186942</v>
+        <v>0.3692529050186943</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3491064415747589</v>
+        <v>0.3486586540619596</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3904835984425955</v>
+        <v>0.3905535081230441</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>539776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>505279</v>
+        <v>502174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>576368</v>
+        <v>571098</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.516258324287893</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4832642467200354</v>
+        <v>0.4802949182897809</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5512559568496148</v>
+        <v>0.5462156850432979</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1147</v>
@@ -5245,19 +5245,19 @@
         <v>780501</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>756736</v>
+        <v>753385</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>803725</v>
+        <v>803847</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7450076768342301</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7223228572534168</v>
+        <v>0.7191243089313184</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7671754000523728</v>
+        <v>0.7672912477930768</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1678</v>
@@ -5266,19 +5266,19 @@
         <v>1320277</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1275837</v>
+        <v>1275690</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1362447</v>
+        <v>1363384</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6307470949813057</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6095164015574045</v>
+        <v>0.6094464918769558</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6508935584252409</v>
+        <v>0.6513413459380402</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>486358</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>453698</v>
+        <v>452141</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>521012</v>
+        <v>519741</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4991758910704466</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4656558490285093</v>
+        <v>0.4640576430888488</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5347438077009257</v>
+        <v>0.5334387325555038</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>362</v>
@@ -5391,19 +5391,19 @@
         <v>271029</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>244653</v>
+        <v>247659</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>298862</v>
+        <v>298191</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2993356730349151</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2702050522199397</v>
+        <v>0.2735245191542952</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3300751874575195</v>
+        <v>0.3293344201826563</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>813</v>
@@ -5412,19 +5412,19 @@
         <v>757386</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>713118</v>
+        <v>714890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>802176</v>
+        <v>805672</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4029174831026824</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.379367332997227</v>
+        <v>0.3803099630300652</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.426744924422536</v>
+        <v>0.4286048546900222</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>487963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>453309</v>
+        <v>454580</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>520623</v>
+        <v>522180</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5008241089295534</v>
+        <v>0.5008241089295533</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4652561922990743</v>
+        <v>0.4665612674444961</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5343441509714907</v>
+        <v>0.5359423569111512</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>955</v>
@@ -5462,19 +5462,19 @@
         <v>634406</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>606573</v>
+        <v>607244</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>660782</v>
+        <v>657776</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.700664326965085</v>
+        <v>0.7006643269650847</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6699248125424806</v>
+        <v>0.6706655798173441</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7297949477800604</v>
+        <v>0.7264754808457048</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1449</v>
@@ -5483,19 +5483,19 @@
         <v>1122369</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1077579</v>
+        <v>1074083</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1166637</v>
+        <v>1164865</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5970825168973176</v>
+        <v>0.5970825168973175</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.573255075577464</v>
+        <v>0.5713951453099776</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6206326670027731</v>
+        <v>0.6196900369699347</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1664953</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1605762</v>
+        <v>1603691</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1735281</v>
+        <v>1729091</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4790449705938909</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4620145007674397</v>
+        <v>0.4614184595829032</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4992800069000027</v>
+        <v>0.4974988299858288</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1199</v>
@@ -5608,19 +5608,19 @@
         <v>900165</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>853424</v>
+        <v>850667</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>947998</v>
+        <v>946332</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2440777946073758</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2314041037148945</v>
+        <v>0.2306564290066439</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2570475160974444</v>
+        <v>0.2565957630610596</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2777</v>
@@ -5629,19 +5629,19 @@
         <v>2565118</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2482115</v>
+        <v>2484906</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2643579</v>
+        <v>2645995</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3580770371957491</v>
+        <v>0.358077037195749</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.346490242321605</v>
+        <v>0.3468798949576988</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3690297570509532</v>
+        <v>0.3693670567462448</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1810614</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1740286</v>
+        <v>1746476</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1869805</v>
+        <v>1871876</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5209550294061092</v>
+        <v>0.520955029406109</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5007199930999975</v>
+        <v>0.5025011700141712</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5379854992325607</v>
+        <v>0.5385815404170968</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4096</v>
@@ -5679,19 +5679,19 @@
         <v>2787861</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2740028</v>
+        <v>2741694</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2834602</v>
+        <v>2837359</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7559222053926242</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7429524839025556</v>
+        <v>0.7434042369389403</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7685958962851054</v>
+        <v>0.769343570993356</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5853</v>
@@ -5700,19 +5700,19 @@
         <v>4598475</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4520014</v>
+        <v>4517598</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4681478</v>
+        <v>4678687</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6419229628042509</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6309702429490469</v>
+        <v>0.6306329432537552</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.653509757678395</v>
+        <v>0.6531201050423012</v>
       </c>
     </row>
     <row r="18">
